--- a/biology/Médecine/David_Lefrançois_(coach)/David_Lefrançois_(coach).xlsx
+++ b/biology/Médecine/David_Lefrançois_(coach)/David_Lefrançois_(coach).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>David_Lefran%C3%A7ois_(coach)</t>
+          <t>David_Lefrançois_(coach)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">David Lefrançois est un coach et homme d'affaires français.  
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>David_Lefran%C3%A7ois_(coach)</t>
+          <t>David_Lefrançois_(coach)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,19 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Il est né le 4 août 1971 à Déville-lès-Rouen[1].
-David Lefrancois se présente ou est présenté comme docteur et expert en neurosciences, scientifique, enseignant à l’Université de Paris Sud, psychologue et psychosocialiste, chercheur, titulaire d’une chaire d’études à Tel Aviv[2].
-Vie de famille
-Carrière
-En 2011, il est représentant de la Coach-Up Institut SA[3].
-En 2016, il est condamné à une interdiction de gérer une entreprise[1]. En octobre de la même année, David Lefrancois ouvre l’entreprise Neurosciences Research International Ltd dont il prend la direction en 2017[2].
-Il préside la société Cabex Stratégie. Celle-ci est fermée en 14 octobre 2021 pour insuffisance d'actifs[4].
-En 2019, il est condamné à vingt-quatre mois de prison dont dix-huit avec sursis dans l’affaire Defaix, une escroquerie où il a « joué un rôle moteur dans la conception de l’argumentaire commercial des coopératives »[5].
-Le 21 mars 2023, la 1re chambre du tribunal administratif de Rouen a déclaré qu'« au cours des opérations de vérification de comptabilité, l’administration a constaté que la comptabilité de l’EURL David Lefrançois était entachée de graves irrégularités et l’a écartée comme non probante. »[6].
-Il possède sa propre école, la NeuroBusiness School[7]. Créateur d'une chaîne sur YouTube, il a publié à ce jour plus de quatre cents vidéos. Il est aussi l'auteur de deux livres sur le coaching.
-Remise en cause de son parcours académique
-Il est depuis 2023 le sujet de controverses, notamment au niveau de son parcours académique[2]. Le créateur de la chaîne YouTube Survolté a ainsi publié une première vidéo d'enquête et un article sur David Lefrançois. Alors que ce dernier se décrit régulièrement comme docteur en neurosciences[8] et est parfois présenté comme titulaire d'une chaire de recherche à l'université de Tel-Aviv, le travail d'investigation du youtubeur établit que Lefrançois n'a jamais publié d'article dans une revue à comité de lecteur et qu'il n'y a aucune trace de son travail à l'université de Kiev, où il dit avoir passé sa thèse. Le site Google Scholar ne recense aucune publication en revue à comité de lecture, ce qui n'est pas compatible avec le parcours d’un universitaire ayant des activités de recherche[2]. L'annuaire de l'Université Paris-Saclay (anciennement Université Paris-Sud) ne fait pas mention de David Lefrançois parmi ses enseignants[9]. 
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est né le 4 août 1971 à Déville-lès-Rouen.
+David Lefrancois se présente ou est présenté comme docteur et expert en neurosciences, scientifique, enseignant à l’Université de Paris Sud, psychologue et psychosocialiste, chercheur, titulaire d’une chaire d’études à Tel Aviv.
 </t>
         </is>
       </c>
@@ -536,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>David_Lefran%C3%A7ois_(coach)</t>
+          <t>David_Lefrançois_(coach)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,10 +558,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, il est représentant de la Coach-Up Institut SA.
+En 2016, il est condamné à une interdiction de gérer une entreprise. En octobre de la même année, David Lefrancois ouvre l’entreprise Neurosciences Research International Ltd dont il prend la direction en 2017.
+Il préside la société Cabex Stratégie. Celle-ci est fermée en 14 octobre 2021 pour insuffisance d'actifs.
+En 2019, il est condamné à vingt-quatre mois de prison dont dix-huit avec sursis dans l’affaire Defaix, une escroquerie où il a « joué un rôle moteur dans la conception de l’argumentaire commercial des coopératives ».
+Le 21 mars 2023, la 1re chambre du tribunal administratif de Rouen a déclaré qu'« au cours des opérations de vérification de comptabilité, l’administration a constaté que la comptabilité de l’EURL David Lefrançois était entachée de graves irrégularités et l’a écartée comme non probante. ».
+Il possède sa propre école, la NeuroBusiness School. Créateur d'une chaîne sur YouTube, il a publié à ce jour plus de quatre cents vidéos. Il est aussi l'auteur de deux livres sur le coaching.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David_Lefrançois_(coach)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Lefran%C3%A7ois_(coach)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Remise en cause de son parcours académique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est depuis 2023 le sujet de controverses, notamment au niveau de son parcours académique. Le créateur de la chaîne YouTube Survolté a ainsi publié une première vidéo d'enquête et un article sur David Lefrançois. Alors que ce dernier se décrit régulièrement comme docteur en neurosciences et est parfois présenté comme titulaire d'une chaire de recherche à l'université de Tel-Aviv, le travail d'investigation du youtubeur établit que Lefrançois n'a jamais publié d'article dans une revue à comité de lecteur et qu'il n'y a aucune trace de son travail à l'université de Kiev, où il dit avoir passé sa thèse. Le site Google Scholar ne recense aucune publication en revue à comité de lecture, ce qui n'est pas compatible avec le parcours d’un universitaire ayant des activités de recherche. L'annuaire de l'Université Paris-Saclay (anciennement Université Paris-Sud) ne fait pas mention de David Lefrançois parmi ses enseignants. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>David_Lefrançois_(coach)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Lefran%C3%A7ois_(coach)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>David Lefrançois, La bible du coaching aujourd'hui : Tout sur le coaching et son évolution, Maxima, 28 mars 2013, 2e éd., 276 p. (ISBN 978-2840017509)
 David Lefrançois, Guide pratique du Life coaching, Gualino Editeur, 21 septembre 2004, 327 p. (ISBN 978-2842008055)
